--- a/files/protocolsTemplates/PRT.xlsx
+++ b/files/protocolsTemplates/PRT.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:IV1676"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
